--- a/PriceMatching/dbres.xlsx
+++ b/PriceMatching/dbres.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah.nadim\Desktop\Nadim_Work\UiPath\Price Matching\PriceMatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA91B72-E0B7-4730-B587-F59A41EB7EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78217311-36A3-43DC-99C1-5534E7FB792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -16,12 +16,25 @@
     <x:sheet name="Item Price" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>EffectiveDate</x:t>
   </x:si>
@@ -53,30 +66,21 @@
     <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>2022-09-01</x:t>
+    <x:t>2021-03-25</x:t>
   </x:si>
   <x:si>
     <x:t>1753-01-01</x:t>
   </x:si>
   <x:si>
-    <x:t>BIG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1039332</x:t>
+    <x:t>OTK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1080406</x:t>
   </x:si>
   <x:si>
     <x:t>UNIT</x:t>
   </x:si>
   <x:si>
-    <x:t>CHONGGA MAT KIMCHI 1.2KG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-10-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1080406</x:t>
-  </x:si>
-  <x:si>
     <x:t>HELLMANS LIGHT MAYONNAISE JAR 400G</x:t>
   </x:si>
   <x:si>
@@ -102,6 +106,18 @@
   </x:si>
   <x:si>
     <x:t>SIMPLOT HASH BROWN 637G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-10-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1164452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RED DRAGON FRUIT KG</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -445,10 +461,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J6"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="H14" sqref="H14"/>
+      <x:selection activeCell="J9" sqref="J9 1:1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +475,7 @@
     <x:col min="10" max="10" width="37.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -491,7 +507,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -508,13 +524,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>59.7</x:v>
+        <x:v>16.9</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>42.49</x:v>
+        <x:v>15.17</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>17.21</x:v>
+        <x:v>1.73</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
         <x:v>1</x:v>
@@ -523,7 +539,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -540,13 +556,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>19.9</x:v>
+        <x:v>38.25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>15.15</x:v>
+        <x:v>33.86</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>4.75</x:v>
+        <x:v>4.39</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
         <x:v>1</x:v>
@@ -555,9 +571,9 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>11</x:v>
@@ -566,30 +582,30 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>38.75</x:v>
+        <x:v>21.9</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>33.86</x:v>
+        <x:v>19.33</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>4.89</x:v>
+        <x:v>2.57</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>11</x:v>
@@ -604,13 +620,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>22.2</x:v>
+        <x:v>16.55</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>19.33</x:v>
+        <x:v>14.16</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>2.87</x:v>
+        <x:v>2.39</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
         <x:v>1</x:v>
@@ -619,7 +635,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -633,22 +649,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>18.1</x:v>
+        <x:v>8.2</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>14.16</x:v>
+        <x:v>9.06</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>3.94</x:v>
+        <x:v>-0.86</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
